--- a/Healthcare/Abbott Laboratories.xlsx
+++ b/Healthcare/Abbott Laboratories.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432DDBB8-165C-0F43-A687-B703E609197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2DD21-B00C-714E-B73A-3A28DF59B167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -976,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,12 +999,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1048,6 +1016,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2543,13 +2529,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>124.36</v>
+    <v>118.23</v>
     <v>93.25</v>
-    <v>0.66059999999999997</v>
-    <v>1.21</v>
-    <v>1.1911E-2</v>
-    <v>0.35</v>
-    <v>3.405E-3</v>
+    <v>0.66010000000000002</v>
+    <v>-0.64</v>
+    <v>-5.7820000000000007E-3</v>
+    <v>0.2</v>
+    <v>1.817E-3</v>
     <v>USD</v>
     <v>Abbott Laboratories is engaged in the discovery, development, manufacture, and sale of a diversified line of health care products. The Company operates through four segments: Established Pharmaceutical Products, Diagnostic Products, Nutritional Products, and Medical Devices. Its Established Pharmaceutical Products segment includes gastroenterology products, women’s health products, cardiovascular and metabolic products, pain and central nervous system products and respiratory drugs and vaccines. Its Diagnostic Products segment includes core laboratory systems in the areas of immunoassay, clinical chemistry, hematology, and transfusion medicine; molecular diagnostics polymerase chain reaction (PCR) instrument systems; point of care systems; rapid diagnostics lateral flow testing products, and informatics and automation solutions. Its Nutritional Products segment includes various forms of infant formula and follow-on formula, adult and other pediatric nutritional products and others.</v>
     <v>115000</v>
@@ -2557,25 +2543,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>100 Abbott Park Rd, ABBOTT PARK, IL, 60064-3500 US</v>
-    <v>103.34</v>
+    <v>110.47</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45020.990511492972</v>
+    <v>45057.969881909376</v>
     <v>0</v>
-    <v>101.83</v>
-    <v>176558000000</v>
+    <v>109.26</v>
+    <v>191371117350</v>
     <v>ABBOTT LABORATORIES</v>
     <v>ABBOTT LABORATORIES</v>
-    <v>101.9</v>
-    <v>26.1904</v>
-    <v>101.59</v>
-    <v>102.8</v>
-    <v>103.15</v>
-    <v>1737946000</v>
+    <v>110.06</v>
+    <v>33.557099999999998</v>
+    <v>110.69</v>
+    <v>110.05</v>
+    <v>110.25</v>
+    <v>1738947000</v>
     <v>ABT</v>
     <v>ABBOTT LABORATORIES (XNYS:ABT)</v>
-    <v>7979045</v>
-    <v>5703014</v>
+    <v>3879469</v>
+    <v>5175320</v>
     <v>1900</v>
   </rv>
   <rv s="2">
@@ -3163,10 +3149,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW121" sqref="AW121"/>
+      <selection pane="bottomRight" activeCell="AP91" sqref="AP91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5381,15 +5367,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>4.0445788376514784</v>
+        <v>4.3839167376812593</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>25.466320496177701</v>
+        <v>27.602930527909997</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>22.624038954382367</v>
+        <v>24.522183156073808</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13514,10 +13500,10 @@
       <c r="AM83" s="1">
         <v>-1413000000</v>
       </c>
-      <c r="AT83" s="33" t="s">
+      <c r="AT83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="34"/>
+      <c r="AU83" s="61"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13637,10 +13623,10 @@
       <c r="AM84" s="1">
         <v>420000000</v>
       </c>
-      <c r="AT84" s="35" t="s">
+      <c r="AT84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="36"/>
+      <c r="AU84" s="63"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14138,10 +14124,10 @@
       <c r="AM88" s="1">
         <v>-1777000000</v>
       </c>
-      <c r="AT88" s="37" t="s">
+      <c r="AT88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AU88" s="38">
+      <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
         <v>1.5435274747890512E-2</v>
       </c>
@@ -14554,10 +14540,10 @@
       <c r="AM91" s="1">
         <v>-185000000</v>
       </c>
-      <c r="AT91" s="37" t="s">
+      <c r="AT91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AU91" s="38">
+      <c r="AU91" s="34">
         <f>AU89/AU90</f>
         <v>0.16530219118709366</v>
       </c>
@@ -14680,10 +14666,10 @@
       <c r="AM92" s="1">
         <v>152000000</v>
       </c>
-      <c r="AT92" s="39" t="s">
+      <c r="AT92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AU92" s="40">
+      <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
         <v>1.2883790010489397E-2</v>
       </c>
@@ -14806,10 +14792,10 @@
       <c r="AM93" s="1">
         <v>22000000</v>
       </c>
-      <c r="AT93" s="35" t="s">
+      <c r="AT93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="36"/>
+      <c r="AU93" s="63"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14932,7 +14918,7 @@
       <c r="AT94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AU94" s="41">
+      <c r="AU94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -15054,12 +15040,12 @@
       <c r="AM95" s="1">
         <v>-753000000</v>
       </c>
-      <c r="AT95" s="42" t="s">
+      <c r="AT95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="43" cm="1">
+      <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.66059999999999997</v>
+        <v>0.66010000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15183,7 +15169,7 @@
       <c r="AT96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AU96" s="41">
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15305,12 +15291,12 @@
       <c r="AM97" s="1">
         <v>-3795000000</v>
       </c>
-      <c r="AT97" s="39" t="s">
+      <c r="AT97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AU97" s="40">
+      <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.9388829999999999E-2</v>
+        <v>6.9367305000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15431,10 +15417,10 @@
       <c r="AM98" s="1">
         <v>-3309000000</v>
       </c>
-      <c r="AT98" s="35" t="s">
+      <c r="AT98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="36"/>
+      <c r="AU98" s="63"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15680,12 +15666,12 @@
       <c r="AM100" s="10">
         <v>-7636000000</v>
       </c>
-      <c r="AT100" s="37" t="s">
+      <c r="AT100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AU100" s="38">
+      <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.12095910939841575</v>
+        <v>0.11265098244696527</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15806,12 +15792,12 @@
       <c r="AM101" s="1">
         <v>-122000000</v>
       </c>
-      <c r="AT101" s="42" t="s">
+      <c r="AT101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AU101" s="44" cm="1">
+      <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>176558000000</v>
+        <v>191371117350</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15932,12 +15918,12 @@
       <c r="AM102" s="10">
         <v>83000000</v>
       </c>
-      <c r="AT102" s="37" t="s">
+      <c r="AT102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AU102" s="38">
+      <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.87904089060158419</v>
+        <v>0.88734901755303475</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16058,12 +16044,12 @@
       <c r="AM103" s="1">
         <v>9799000000</v>
       </c>
-      <c r="AT103" s="39" t="s">
+      <c r="AT103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AU103" s="45">
+      <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>200853000000</v>
+        <v>215666117350</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16184,10 +16170,10 @@
       <c r="AM104" s="11">
         <v>9882000000</v>
       </c>
-      <c r="AT104" s="35" t="s">
+      <c r="AT104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="36"/>
+      <c r="AU104" s="63"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16353,7 +16339,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.255403068634692E-2</v>
+        <v>6.3004381544373753E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16474,33 +16460,33 @@
       <c r="AM106" s="1">
         <v>7804000000</v>
       </c>
-      <c r="AN106" s="46">
+      <c r="AN106" s="42">
         <f>AM106*(1+$AU$106)</f>
         <v>8072821906.7631292</v>
       </c>
-      <c r="AO106" s="46">
+      <c r="AO106" s="42">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
         <v>8350903836.2781506</v>
       </c>
-      <c r="AP106" s="46">
+      <c r="AP106" s="42">
         <f t="shared" si="9"/>
         <v>8638564765.6046276</v>
       </c>
-      <c r="AQ106" s="46">
+      <c r="AQ106" s="42">
         <f t="shared" si="9"/>
         <v>8936134659.5034771</v>
       </c>
-      <c r="AR106" s="46">
+      <c r="AR106" s="42">
         <f t="shared" si="9"/>
         <v>9243954848.9268246</v>
       </c>
-      <c r="AS106" s="47" t="s">
+      <c r="AS106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AT106" s="48" t="s">
+      <c r="AT106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AU106" s="49">
+      <c r="AU106" s="45">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>3.4446682055757225E-2</v>
       </c>
@@ -16545,151 +16531,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="47"/>
-      <c r="AO107" s="47"/>
-      <c r="AP107" s="47"/>
-      <c r="AQ107" s="47"/>
-      <c r="AR107" s="50">
+      <c r="AN107" s="43"/>
+      <c r="AO107" s="43"/>
+      <c r="AP107" s="43"/>
+      <c r="AQ107" s="43"/>
+      <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>252304574155.73047</v>
-      </c>
-      <c r="AS107" s="51" t="s">
+        <v>249314772010.87885</v>
+      </c>
+      <c r="AS107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AT107" s="52" t="s">
+      <c r="AT107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AU107" s="53">
+      <c r="AU107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="50">
+      <c r="AN108" s="46">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
         <v>8072821906.7631292</v>
       </c>
-      <c r="AO108" s="50">
+      <c r="AO108" s="46">
         <f t="shared" si="10"/>
         <v>8350903836.2781506</v>
       </c>
-      <c r="AP108" s="50">
+      <c r="AP108" s="46">
         <f t="shared" si="10"/>
         <v>8638564765.6046276</v>
       </c>
-      <c r="AQ108" s="50">
+      <c r="AQ108" s="46">
         <f>AQ107+AQ106</f>
         <v>8936134659.5034771</v>
       </c>
-      <c r="AR108" s="50">
+      <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>261548529004.65729</v>
-      </c>
-      <c r="AS108" s="51" t="s">
+        <v>258558726859.80566</v>
+      </c>
+      <c r="AS108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AT108" s="54" t="s">
+      <c r="AT108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AU108" s="55">
+      <c r="AU108" s="51">
         <f>AU105</f>
-        <v>6.255403068634692E-2</v>
+        <v>6.3004381544373753E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="56" t="s">
+      <c r="AN109" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="57"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="58" t="s">
+      <c r="AN110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AO110" s="44">
+      <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>222312147964.2348</v>
+        <v>219670172502.55292</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="58" t="s">
+      <c r="AN111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AO111" s="44">
+      <c r="AO111" s="40">
         <f>AM40</f>
         <v>10170000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="58" t="s">
+      <c r="AN112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AO112" s="44">
+      <c r="AO112" s="40">
         <f>AU99</f>
         <v>24295000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="58" t="s">
+      <c r="AN113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AO113" s="44">
+      <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>208187147964.2348</v>
+        <v>205545172502.55292</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="58" t="s">
+      <c r="AN114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AO114" s="59">
+      <c r="AO114" s="53">
         <f>AM34*(1+(5*AS16))</f>
         <v>1823557725.9454296</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="60" t="s">
+      <c r="AN115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AO115" s="61">
+      <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>114.16537299706236</v>
+        <v>112.71657023963272</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="58" t="s">
+      <c r="AN116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="AO116" s="62" cm="1">
+      <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>102.8</v>
+        <v>110.05</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="63" t="s">
+      <c r="AN117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AO117" s="64">
+      <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>0.11055810308426417</v>
+        <v>2.4230533754045602E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="63" t="s">
+      <c r="AN118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AO118" s="65" t="str">
+      <c r="AO118" s="59" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ABT" display="ROIC.AI | ABT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
